--- a/Docs/Lista05.xlsx
+++ b/Docs/Lista05.xlsx
@@ -1,59 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\curso-excel\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33C7E595-992A-4D8C-AFAB-AA3F4E3D6010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F59363-D6EF-47B1-B465-564A9D42FC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Exerc1" sheetId="1" r:id="rId1"/>
-    <sheet name="Exerc2" sheetId="2" r:id="rId2"/>
-    <sheet name="Exerc3" sheetId="3" r:id="rId3"/>
-    <sheet name="Exerc4" sheetId="4" r:id="rId4"/>
+    <sheet name="Exerc1" sheetId="3" r:id="rId1"/>
+    <sheet name="Exerc2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="27">
-  <si>
-    <t>ANO</t>
-  </si>
-  <si>
-    <t>DOSES</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>TRAT.</t>
-  </si>
-  <si>
-    <t>MÉDIA</t>
-  </si>
-  <si>
-    <t>TESTE DE TUKEY</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="17">
   <si>
     <t>X</t>
   </si>
@@ -109,11 +77,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$R$-416]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$R$-416]&quot; &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -150,30 +118,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF008000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,40 +127,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -227,146 +143,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -401,67 +177,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Campo da tabela dinâmica" xfId="1"/>
-    <cellStyle name="Canto da tabela dinâmica" xfId="2"/>
-    <cellStyle name="Categoria da tabela dinâmica" xfId="3"/>
-    <cellStyle name="Heading" xfId="4"/>
-    <cellStyle name="Heading1" xfId="5"/>
+    <cellStyle name="Campo da tabela dinâmica" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Canto da tabela dinâmica" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Categoria da tabela dinâmica" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Heading" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Heading1" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="6"/>
-    <cellStyle name="Result2" xfId="7"/>
-    <cellStyle name="Resultado da tabela dinâmica" xfId="8"/>
-    <cellStyle name="Título da tabela dinâmica" xfId="9"/>
-    <cellStyle name="Valor da tabela dinâmica" xfId="10"/>
+    <cellStyle name="Result" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Result2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Resultado da tabela dinâmica" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Título da tabela dinâmica" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Valor da tabela dinâmica" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -792,127 +524,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="11.88671875" customWidth="1"/>
+    <col min="1" max="21" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1">
+        <v>1.5</v>
+      </c>
+      <c r="C1">
+        <v>4.5</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>8.5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>13.5</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>12.5</v>
+      </c>
+      <c r="K1">
+        <v>7.5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>6.5</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
+      <c r="O1">
+        <v>7.5</v>
+      </c>
+      <c r="P1">
+        <v>8</v>
+      </c>
+      <c r="Q1">
+        <v>7.5</v>
+      </c>
+      <c r="R1">
+        <v>12</v>
+      </c>
+      <c r="S1">
+        <v>6</v>
+      </c>
+      <c r="T1">
+        <v>2.5</v>
+      </c>
+      <c r="U1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>1997</v>
-      </c>
-      <c r="B3" s="8">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C3" s="8">
-        <v>19.7</v>
-      </c>
-      <c r="D3" s="8">
-        <v>28.6</v>
-      </c>
-      <c r="E3" s="8">
-        <v>30.8</v>
-      </c>
-      <c r="F3" s="8">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>1998</v>
-      </c>
-      <c r="B4" s="8">
-        <v>6.6</v>
-      </c>
-      <c r="C4" s="8">
-        <v>15.7</v>
-      </c>
-      <c r="D4" s="8">
-        <v>25</v>
-      </c>
-      <c r="E4" s="8">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="F4" s="8">
-        <v>42.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1999</v>
-      </c>
-      <c r="B5" s="10">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C5" s="10">
-        <v>16</v>
-      </c>
-      <c r="D5" s="10">
-        <v>31.9</v>
-      </c>
-      <c r="E5" s="10">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="F5" s="10">
-        <v>32.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>66</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>94</v>
+      </c>
+      <c r="G2">
+        <v>79</v>
+      </c>
+      <c r="H2">
+        <v>93</v>
+      </c>
+      <c r="I2">
+        <v>66</v>
+      </c>
+      <c r="J2">
+        <v>94</v>
+      </c>
+      <c r="K2">
+        <v>82</v>
+      </c>
+      <c r="L2">
+        <v>33</v>
+      </c>
+      <c r="M2">
+        <v>78</v>
+      </c>
+      <c r="N2">
+        <v>65</v>
+      </c>
+      <c r="O2">
+        <v>77</v>
+      </c>
+      <c r="P2">
+        <v>75</v>
+      </c>
+      <c r="Q2">
+        <v>62</v>
+      </c>
+      <c r="R2">
+        <v>85</v>
+      </c>
+      <c r="S2">
+        <v>43</v>
+      </c>
+      <c r="T2">
+        <v>57</v>
+      </c>
+      <c r="U2">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
@@ -925,267 +675,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16">
-        <v>16</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="21" width="6.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1">
-        <v>1.5</v>
-      </c>
-      <c r="C1">
-        <v>4.5</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>8.5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>13.5</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>12.5</v>
-      </c>
-      <c r="K1">
-        <v>7.5</v>
-      </c>
-      <c r="L1">
-        <v>6</v>
-      </c>
-      <c r="M1">
-        <v>6.5</v>
-      </c>
-      <c r="N1">
-        <v>8</v>
-      </c>
-      <c r="O1">
-        <v>7.5</v>
-      </c>
-      <c r="P1">
-        <v>8</v>
-      </c>
-      <c r="Q1">
-        <v>7.5</v>
-      </c>
-      <c r="R1">
-        <v>12</v>
-      </c>
-      <c r="S1">
-        <v>6</v>
-      </c>
-      <c r="T1">
-        <v>2.5</v>
-      </c>
-      <c r="U1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>63</v>
-      </c>
-      <c r="D2">
-        <v>66</v>
-      </c>
-      <c r="E2">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>94</v>
-      </c>
-      <c r="G2">
-        <v>79</v>
-      </c>
-      <c r="H2">
-        <v>93</v>
-      </c>
-      <c r="I2">
-        <v>66</v>
-      </c>
-      <c r="J2">
-        <v>94</v>
-      </c>
-      <c r="K2">
-        <v>82</v>
-      </c>
-      <c r="L2">
-        <v>33</v>
-      </c>
-      <c r="M2">
-        <v>78</v>
-      </c>
-      <c r="N2">
-        <v>65</v>
-      </c>
-      <c r="O2">
-        <v>77</v>
-      </c>
-      <c r="P2">
-        <v>75</v>
-      </c>
-      <c r="Q2">
-        <v>62</v>
-      </c>
-      <c r="R2">
-        <v>85</v>
-      </c>
-      <c r="S2">
-        <v>43</v>
-      </c>
-      <c r="T2">
-        <v>57</v>
-      </c>
-      <c r="U2">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>15</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1635</v>
@@ -1193,13 +720,13 @@
     </row>
     <row r="3" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1550</v>
@@ -1207,13 +734,13 @@
     </row>
     <row r="4" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1358</v>
@@ -1221,13 +748,13 @@
     </row>
     <row r="5" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>1265</v>
@@ -1235,13 +762,13 @@
     </row>
     <row r="6" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>1082</v>
@@ -1249,13 +776,13 @@
     </row>
     <row r="7" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>980</v>
@@ -1263,13 +790,13 @@
     </row>
     <row r="8" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>1970</v>
@@ -1277,13 +804,13 @@
     </row>
     <row r="9" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>1872</v>
@@ -1291,13 +818,13 @@
     </row>
     <row r="10" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>1150</v>
@@ -1305,13 +832,13 @@
     </row>
     <row r="11" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>1200</v>
@@ -1319,13 +846,13 @@
     </row>
     <row r="12" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>865</v>
@@ -1333,13 +860,13 @@
     </row>
     <row r="13" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>920</v>
@@ -1347,13 +874,13 @@
     </row>
     <row r="14" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>580</v>
@@ -1361,13 +888,13 @@
     </row>
     <row r="15" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>640</v>
@@ -1375,13 +902,13 @@
     </row>
     <row r="16" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>1472</v>
@@ -1389,13 +916,13 @@
     </row>
     <row r="17" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>1530</v>
@@ -1403,13 +930,13 @@
     </row>
     <row r="18" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>1620</v>
@@ -1417,13 +944,13 @@
     </row>
     <row r="19" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>1650</v>
@@ -1431,13 +958,13 @@
     </row>
     <row r="20" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>1332</v>
@@ -1445,13 +972,13 @@
     </row>
     <row r="21" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>1365</v>
@@ -1459,13 +986,13 @@
     </row>
     <row r="22" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>1044</v>
@@ -1473,13 +1000,13 @@
     </row>
     <row r="23" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>1080</v>
@@ -1487,13 +1014,13 @@
     </row>
     <row r="24" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>1938</v>
@@ -1501,13 +1028,13 @@
     </row>
     <row r="25" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <v>1972</v>
@@ -1515,13 +1042,13 @@
     </row>
     <row r="26" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>1380</v>
@@ -1529,13 +1056,13 @@
     </row>
     <row r="27" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>1395</v>
@@ -1543,13 +1070,13 @@
     </row>
     <row r="28" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>1098</v>
@@ -1557,13 +1084,13 @@
     </row>
     <row r="29" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>1114</v>
@@ -1571,13 +1098,13 @@
     </row>
     <row r="30" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>816</v>
@@ -1585,13 +1112,13 @@
     </row>
     <row r="31" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>834</v>
@@ -1599,13 +1126,13 @@
     </row>
     <row r="32" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <v>1707</v>
@@ -1613,13 +1140,13 @@
     </row>
     <row r="33" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>1724</v>
@@ -1627,13 +1154,13 @@
     </row>
     <row r="34" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>1748</v>
@@ -1641,13 +1168,13 @@
     </row>
     <row r="35" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>629</v>
@@ -1655,13 +1182,13 @@
     </row>
     <row r="36" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>1003</v>
@@ -1669,13 +1196,13 @@
     </row>
     <row r="37" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>1912</v>
@@ -1683,13 +1210,13 @@
     </row>
     <row r="38" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>594</v>
@@ -1697,13 +1224,13 @@
     </row>
     <row r="39" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>808</v>
@@ -1711,29 +1238,29 @@
     </row>
     <row r="40" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D40">
         <v>881</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="18">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2">
         <v>1476</v>
       </c>
     </row>

--- a/Docs/Lista05.xlsx
+++ b/Docs/Lista05.xlsx
@@ -5,29 +5,36 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\curso-excel\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\curso-excel\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F59363-D6EF-47B1-B465-564A9D42FC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3329005-D8D8-46CC-BA6C-78219210A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exerc1" sheetId="3" r:id="rId1"/>
     <sheet name="Exerc2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="17">
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="20">
   <si>
     <t>CURSO</t>
   </si>
@@ -36,9 +43,6 @@
   </si>
   <si>
     <t>SEMESTRE</t>
-  </si>
-  <si>
-    <t>GASTOS (R$)</t>
   </si>
   <si>
     <t>AGRO.</t>
@@ -72,6 +76,24 @@
   </si>
   <si>
     <t>ENG.</t>
+  </si>
+  <si>
+    <t>VET</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>GASTOS</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>KWH</t>
   </si>
 </sst>
 </file>
@@ -151,7 +173,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -177,10 +199,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Campo da tabela dinâmica" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -527,16 +554,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="21" width="6.33203125" customWidth="1"/>
+    <col min="1" max="21" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>1.5</v>
@@ -599,9 +626,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -676,592 +703,1938 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1635.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1550.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1358.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1265.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1082.6199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>980.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1970.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1872.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1150.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1200.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>865.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
       <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>920.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>580.16999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4">
+        <v>640.33000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1472.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1530.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2349.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2392.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1932.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1979.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1514.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1566.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2810.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2860.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>2022</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1620.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2022</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1650.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>2022</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1332.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>2022</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1365.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>2022</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1044.4000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>2022</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1080.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>2022</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1938.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>2022</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1972.77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>2022</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1380.98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>2022</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1395.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>2022</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1098.74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>2022</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1114.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>2022</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4">
+        <v>816.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>2022</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4">
+        <v>834.48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>2022</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1707.81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>2022</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1724.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>2022</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1159.92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>15</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>2022</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1172.48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>2022</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4">
+        <v>922.89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>2022</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="4">
+        <v>936.15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>2022</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>2022</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="4">
+        <v>701.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>2022</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1434.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>2022</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1448.27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>2022</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1748.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>2022</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="4">
+        <v>629.84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>2022</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1003.87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>2022</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1912.62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>2022</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="4">
+        <v>594.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>2022</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="4">
+        <v>808.46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>2022</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="4">
+        <v>881.49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1476.13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="6">
+        <v>3015.76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>2023</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1927.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>2023</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2482.3000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>2023</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1430.73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>2023</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1442.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>2023</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1210.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>2023</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="5">
+        <v>3535.59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>2023</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2071.66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>2023</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1670.63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>2023</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1311.18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>2023</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1352.17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>2023</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1796.56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>2023</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1084.26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>2023</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1077.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>2023</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1577.92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>2023</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="5">
+        <v>2777.45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>2023</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="5">
+        <v>3334.34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2023</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="5">
+        <v>4264.2700000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>2023</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="5">
+        <v>3339.28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>2023</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="5">
+        <v>3948.18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>2023</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="5">
+        <v>2759.87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>2023</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="5">
+        <v>2090.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>2023</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="5">
+        <v>4788.87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>2023</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="5">
+        <v>5273.35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>2023</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="5">
+        <v>2782.87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>2023</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="5">
+        <v>2147.29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>2023</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1822.24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>2023</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1875.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>2023</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1531.43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>2023</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1341.18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>2023</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="5">
+        <v>2805.04</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>2023</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="5">
+        <v>3639.59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>2023</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1810.78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>2023</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1887.63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>2023</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1366.18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>2023</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="5">
+        <v>2135.64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>2023</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="4">
+        <v>850.74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>2023</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="4">
+        <v>972.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>2023</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="5">
+        <v>3259.64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>2023</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="5">
+        <v>2799.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>2023</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="5">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>2023</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1853.83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>2023</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1709.41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>2023</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1648.23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1476</v>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>2023</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="4">
+        <v>836.96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>2023</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="5">
+        <v>1292.53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>2023</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="5">
+        <v>1870.84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>2023</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="5">
+        <v>2668.04</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>2023</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="5">
+        <v>3474.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>2023</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="5">
+        <v>1007.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>2023</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1092.94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>2023</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="5">
+        <v>1983.71</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>2023</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="4">
+        <v>908.12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>2023</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="4">
+        <v>944.94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>2023</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="5">
+        <v>1400.02</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="7">
+        <v>1737.39</v>
       </c>
     </row>
   </sheetData>
